--- a/03_result/AgeGroup_Blood_Stats.xlsx
+++ b/03_result/AgeGroup_Blood_Stats.xlsx
@@ -152,13 +152,13 @@
     <t xml:space="preserve">PLT_Mean</t>
   </si>
   <si>
+    <t xml:space="preserve">Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly</t>
   </si>
 </sst>
 </file>
@@ -635,139 +635,139 @@
         <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>2.88</v>
+        <v>3.26</v>
       </c>
       <c r="C2" t="n">
-        <v>24.95</v>
+        <v>12.81</v>
       </c>
       <c r="D2" t="n">
-        <v>7.07726141078838</v>
+        <v>6.62209756097561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>17.95</v>
+        <v>9.61</v>
       </c>
       <c r="G2" t="n">
-        <v>3.47908713692946</v>
+        <v>4.10936585365854</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I2" t="n">
-        <v>7.15</v>
+        <v>4.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9301244813278</v>
+        <v>2.00575609756098</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="n">
-        <v>2.57</v>
+        <v>0.98</v>
       </c>
       <c r="M2" t="n">
-        <v>0.429541666666667</v>
+        <v>0.364878048780488</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="P2" t="n">
-        <v>0.225269709543568</v>
+        <v>0.112926829268293</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0317842323651452</v>
+        <v>0.0291707317073171</v>
       </c>
       <c r="T2" t="n">
-        <v>12.6</v>
+        <v>39.6</v>
       </c>
       <c r="U2" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="V2" t="n">
-        <v>47.9406639004149</v>
+        <v>61.289756097561</v>
       </c>
       <c r="W2" t="n">
-        <v>11.2</v>
+        <v>15.1</v>
       </c>
       <c r="X2" t="n">
-        <v>73</v>
+        <v>53.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.9348547717842</v>
+        <v>30.9034146341463</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.0551867219917</v>
+        <v>5.5780487804878</v>
       </c>
       <c r="AC2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.74487804878049</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.22282157676349</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AG2" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.468464730290456</v>
+        <v>0.48390243902439</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.71</v>
+        <v>3.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.97</v>
+        <v>8.06</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.71311203319502</v>
+        <v>4.81117073170732</v>
       </c>
       <c r="AL2" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AM2" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>133.514522821577</v>
+        <v>142.365853658537</v>
       </c>
       <c r="AO2" t="n">
-        <v>30.2</v>
+        <v>33.7</v>
       </c>
       <c r="AP2" t="n">
-        <v>48.8</v>
+        <v>55.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40.0278008298755</v>
+        <v>44.2868292682927</v>
       </c>
       <c r="AR2" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AS2" t="n">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="AT2" t="n">
-        <v>285.082987551867</v>
+        <v>229.473170731707</v>
       </c>
     </row>
     <row r="3">
@@ -775,139 +775,139 @@
         <v>47</v>
       </c>
       <c r="B3" t="n">
-        <v>3.26</v>
+        <v>1.41</v>
       </c>
       <c r="C3" t="n">
-        <v>12.81</v>
+        <v>37.83</v>
       </c>
       <c r="D3" t="n">
-        <v>6.62381642512077</v>
+        <v>8.00046979865772</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>0.48</v>
       </c>
       <c r="F3" t="n">
-        <v>9.61</v>
+        <v>34.86</v>
       </c>
       <c r="G3" t="n">
-        <v>4.11747572815534</v>
+        <v>5.93342281879195</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>4.22</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>2.00565217391304</v>
+        <v>1.37664429530201</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>2.71</v>
       </c>
       <c r="M3" t="n">
-        <v>0.366183574879227</v>
+        <v>0.520805369127517</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.74</v>
+        <v>3.15</v>
       </c>
       <c r="P3" t="n">
-        <v>0.11280193236715</v>
+        <v>0.143288590604027</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0289371980676329</v>
+        <v>0.0232885906040268</v>
       </c>
       <c r="T3" t="n">
-        <v>39.6</v>
+        <v>34.2</v>
       </c>
       <c r="U3" t="n">
-        <v>79.5</v>
+        <v>98.2</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2729468599034</v>
+        <v>69.9114093959732</v>
       </c>
       <c r="W3" t="n">
-        <v>15.1</v>
+        <v>0.9</v>
       </c>
       <c r="X3" t="n">
-        <v>53.2</v>
+        <v>51.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.904347826087</v>
+        <v>20.6261744966443</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.6024154589372</v>
+        <v>6.97718120805369</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.1</v>
+        <v>32.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.74009661835749</v>
+        <v>2.13355704697987</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.480193236714976</v>
+        <v>0.351677852348993</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.6</v>
+        <v>1.58</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.06</v>
+        <v>5.63</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.80821256038647</v>
+        <v>3.74926174496644</v>
       </c>
       <c r="AL3" t="n">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AN3" t="n">
-        <v>142.207729468599</v>
+        <v>113.174496644295</v>
       </c>
       <c r="AO3" t="n">
-        <v>33.7</v>
+        <v>14.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>55.4</v>
+        <v>51.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>44.2444444444444</v>
+        <v>34.1335570469799</v>
       </c>
       <c r="AR3" t="n">
-        <v>96</v>
+        <v>0.018</v>
       </c>
       <c r="AS3" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AT3" t="n">
-        <v>228.869565217391</v>
+        <v>39.2895503355705</v>
       </c>
     </row>
     <row r="4">
@@ -915,139 +915,139 @@
         <v>48</v>
       </c>
       <c r="B4" t="n">
-        <v>1.41</v>
+        <v>2.88</v>
       </c>
       <c r="C4" t="n">
-        <v>37.83</v>
+        <v>24.95</v>
       </c>
       <c r="D4" t="n">
-        <v>8.00046979865772</v>
+        <v>7.07726141078838</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="F4" t="n">
-        <v>34.86</v>
+        <v>17.95</v>
       </c>
       <c r="G4" t="n">
-        <v>5.93342281879195</v>
+        <v>3.47908713692946</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>7.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.37664429530201</v>
+        <v>2.9301244813278</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L4" t="n">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="M4" t="n">
-        <v>0.520805369127517</v>
+        <v>0.42896265560166</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.15</v>
+        <v>0.91</v>
       </c>
       <c r="P4" t="n">
-        <v>0.143288590604027</v>
+        <v>0.225269709543568</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0232885906040268</v>
+        <v>0.0317842323651452</v>
       </c>
       <c r="T4" t="n">
-        <v>34.2</v>
+        <v>12.6</v>
       </c>
       <c r="U4" t="n">
-        <v>98.2</v>
+        <v>79.8</v>
       </c>
       <c r="V4" t="n">
-        <v>69.9114093959732</v>
+        <v>47.9406639004149</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="X4" t="n">
-        <v>51.6</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.6261744966443</v>
+        <v>41.9348547717842</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.4</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.97718120805369</v>
+        <v>6.0551867219917</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>32.2</v>
+        <v>13.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.13355704697987</v>
+        <v>3.22282157676349</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.351677852348993</v>
+        <v>0.468464730290456</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.63</v>
+        <v>6.97</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.74926174496644</v>
+        <v>4.71311203319502</v>
       </c>
       <c r="AL4" t="n">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AN4" t="n">
-        <v>113.174496644295</v>
+        <v>133.514522821577</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.2</v>
+        <v>30.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>51.2</v>
+        <v>48.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34.1335570469799</v>
+        <v>40.0278008298755</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.018</v>
+        <v>118</v>
       </c>
       <c r="AS4" t="n">
-        <v>431</v>
+        <v>561</v>
       </c>
       <c r="AT4" t="n">
-        <v>39.2895503355705</v>
+        <v>285.082987551867</v>
       </c>
     </row>
   </sheetData>
